--- a/srkv2.xlsx
+++ b/srkv2.xlsx
@@ -22921,7 +22921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:I3"/>
@@ -22945,6 +22945,9 @@
       <c r="C1" t="n">
         <v>0.2</v>
       </c>
+      <c r="D1" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -22958,6 +22961,9 @@
       <c r="C2" t="n">
         <v>0.629743990820391</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.7320071812414681</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -22970,6 +22976,9 @@
       </c>
       <c r="C3" t="n">
         <v>0.01619079213302642</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01522326629051956</v>
       </c>
     </row>
     <row r="10">

--- a/srkv2.xlsx
+++ b/srkv2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="984" yWindow="156" windowWidth="20760" windowHeight="11184" tabRatio="600" firstSheet="11" activeTab="19" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="984" yWindow="156" windowWidth="16728" windowHeight="6660" tabRatio="600" firstSheet="11" activeTab="19" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ориг" sheetId="1" state="visible" r:id="rId1"/>
@@ -9323,6 +9323,435 @@
     </plotArea>
     <legend>
       <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>None</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <layout/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>None</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </txPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'my(18)'!$A$2</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>DOG</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(18)'!$B$1:$J$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.3</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.35</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.45</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(18)'!$B$2:$J$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>0.05925937466277969</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0157274023633919</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.03621898974100377</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.09825670540631326</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.07437397281436074</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.05589911026659167</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1466469391893901</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.3950669002986146</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.2777478843118829</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'my(18)'!$A$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>МНК</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(18)'!$B$1:$J$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.3</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.35</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.45</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(18)'!$B$3:$J$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>0.02106723386971123</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.01395595040327751</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.03440788602668622</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.07378806488920645</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0653161907229225</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.05557102230924801</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.08725713931668198</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.02154292265181525</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.02406391656321213</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <smooth val="0"/>
+        <axId val="219658064"/>
+        <axId val="219659312"/>
+      </lineChart>
+      <catAx>
+        <axId val="219658064"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </txPr>
+        <crossAx val="219659312"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="219659312"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </txPr>
+        <crossAx val="219658064"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill/>
@@ -14648,6 +15077,38 @@
       <colOff>510540</colOff>
       <row>19</row>
       <rowOff>15240</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>190500</colOff>
+      <row>3</row>
+      <rowOff>133350</rowOff>
+    </from>
+    <to>
+      <col>12</col>
+      <colOff>495300</colOff>
+      <row>18</row>
+      <rowOff>133350</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -22499,8 +22960,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.88671875" customWidth="1" style="3" min="1" max="8"/>
-    <col width="8.88671875" customWidth="1" style="3" min="9" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="3" min="1" max="12"/>
+    <col width="8.88671875" customWidth="1" style="3" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -22916,69 +23377,180 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I3"/>
+      <selection activeCell="A1" sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.88671875" customWidth="1" style="3" min="1" max="8"/>
-    <col width="8.88671875" customWidth="1" style="3" min="9" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="8.88671875" customWidth="1" style="3" min="2" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0.05</v>
       </c>
       <c r="B1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E1" t="n">
         <v>0.2</v>
       </c>
-      <c r="C1" t="n">
+      <c r="F1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P1" t="n">
         <v>0.2</v>
       </c>
-      <c r="D1" t="n">
-        <v>0.2</v>
+      <c r="Q1" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DOG</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0.02387139334200548</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9440636681829835</v>
+        <v>0.05925937466277969</v>
       </c>
       <c r="C2" t="n">
-        <v>0.629743990820391</v>
+        <v>0.0157274023633919</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7320071812414681</v>
+        <v>0.03621898974100377</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09825670540631326</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.07437397281436074</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05589911026659167</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1466469391893901</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3950669002986146</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2777478843118829</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.02387139334200548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02387139334200548</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0238713939806476</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1534635644759069</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.686831042691852</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4090480803351997</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1722127967241036</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>МНК</t>
-        </is>
+      <c r="A3" t="n">
+        <v>0.03034501065937824</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02728315811163062</v>
+        <v>0.02106723386971123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01619079213302642</v>
+        <v>0.01395595040327751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01522326629051956</v>
+        <v>0.03440788602668622</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.07378806488920645</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0653161907229225</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05557102230924801</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.08725713931668198</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02154292265181525</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02406391656321213</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.03034501065937824</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03034501065937824</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.03034501065937824</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03112166566951197</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.04359416502929249</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0617016187988779</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.06974929317301856</v>
       </c>
     </row>
     <row r="10">
@@ -22987,9 +23559,6 @@
           <t>noise</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -22997,12 +23566,10 @@
           <t>bn</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
